--- a/resource/TEMPLATE_ARK.xlsx
+++ b/resource/TEMPLATE_ARK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15902\go\src\github.com\skeyic\ark-robot\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA7A20-25AA-46D5-BF6A-28819F8A1A3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0463FEAC-1CFA-4AA2-BDD9-2BA811C4B04D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="165" windowWidth="28035" windowHeight="20475" xr2:uid="{F07BBE50-B47C-4F49-968F-328D3756EA4F}"/>
+    <workbookView xWindow="9555" yWindow="240" windowWidth="28035" windowHeight="20475" xr2:uid="{F07BBE50-B47C-4F49-968F-328D3756EA4F}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Shards</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,11 +157,26 @@
     <t>EXAMPLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>前三日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,23 +234,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -557,25 +572,25 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -615,76 +630,76 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="3">
-        <v>44248</v>
-      </c>
-      <c r="K2" s="3">
-        <v>44249</v>
-      </c>
-      <c r="L2" s="3">
-        <v>44250</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="99" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1">
         <v>1000</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.1</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>0.02</v>
       </c>
     </row>
